--- a/Framework_DX11/Client/Bin/DataFiles/Item_Equip_Slot_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Equip_Slot_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{8925C65F-5B68-4073-824D-6F62061E20DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C86E4-6AEA-485D-AC3A-B0553F00988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Equip_Slot_Data.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Equip_Slot_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject\Bulid\24-11-16-Local\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C86E4-6AEA-485D-AC3A-B0553F00988B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C2B2AEC-BB81-4E93-8746-7ADADBCBF996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>TYPE_USING_BASIC</t>
   </si>
@@ -273,6 +273,13 @@
   </si>
   <si>
     <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>none</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +711,7 @@
   <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1292,9 @@
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="D7" s="10">
         <v>0</v>
       </c>
@@ -1378,7 +1387,9 @@
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D8" s="10">
         <v>0</v>
       </c>
@@ -1471,7 +1482,9 @@
       <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D9" s="10">
         <v>0</v>
       </c>
@@ -1944,7 +1957,9 @@
       <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D14" s="10">
         <v>0</v>
       </c>
@@ -2037,7 +2052,9 @@
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D15" s="10">
         <v>0</v>
       </c>
@@ -2130,7 +2147,9 @@
       <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D16" s="10">
         <v>0</v>
       </c>
@@ -2603,7 +2622,9 @@
       <c r="B21" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="D21" s="10">
         <v>0</v>
       </c>
@@ -2981,7 +3002,9 @@
       <c r="B25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="D25" s="10">
         <v>0</v>
       </c>
